--- a/data/HopperzR.xlsx
+++ b/data/HopperzR.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devan.mcgranahan\GithubProjects\Hopperz\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01BBF509-DE23-4323-9663-BFC814D8444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B483DA-407D-4BA4-BC29-054457B613E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="2" xr2:uid="{426BDDD6-19ED-45C3-AFFB-7F1D97B52DE9}"/>
+    <workbookView xWindow="735" yWindow="322" windowWidth="16260" windowHeight="13358" activeTab="3" xr2:uid="{426BDDD6-19ED-45C3-AFFB-7F1D97B52DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Forage Biomass" sheetId="1" r:id="rId1"/>
     <sheet name="CN Analysis" sheetId="2" r:id="rId2"/>
     <sheet name="Hopper Abundance" sheetId="3" r:id="rId3"/>
-    <sheet name="Treatment" sheetId="4" r:id="rId4"/>
+    <sheet name="LiveDeadRatio" sheetId="5" r:id="rId4"/>
+    <sheet name="Treatment" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
   <si>
     <t>Plot</t>
   </si>
@@ -122,12 +123,24 @@
   <si>
     <t>Per Tiller</t>
   </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>trt</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +179,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -313,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,6 +373,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2008,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E390F738-CF84-45E0-9318-CF1CEFE3CBB3}">
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -5649,6 +5674,162 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35955F02-B8F4-496D-AC59-B47E0B30D3BC}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="22">
+        <v>12</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="22">
+        <v>857</v>
+      </c>
+      <c r="D2" s="22">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="22">
+        <v>23</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="22">
+        <v>957</v>
+      </c>
+      <c r="D3" s="22">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="22">
+        <v>33</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1788</v>
+      </c>
+      <c r="D4" s="22">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="22">
+        <v>9</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="22">
+        <v>611</v>
+      </c>
+      <c r="D5" s="22">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="22">
+        <v>18</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="22">
+        <v>382</v>
+      </c>
+      <c r="D6" s="22">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="22">
+        <v>36</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="22">
+        <v>611</v>
+      </c>
+      <c r="D7" s="22">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="22">
+        <v>8</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="22">
+        <v>206</v>
+      </c>
+      <c r="D8" s="22">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="22">
+        <v>17</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="22">
+        <v>374</v>
+      </c>
+      <c r="D9" s="22">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="22">
+        <v>35</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="22">
+        <v>337</v>
+      </c>
+      <c r="D10" s="22">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC42B57-BD9D-4627-9023-1965D32E4DD2}">
   <dimension ref="A1:B10"/>
   <sheetViews>
